--- a/REGULAR/1-TEMPALTE LEAVE CARD.xlsx
+++ b/REGULAR/1-TEMPALTE LEAVE CARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ABAE54-A781-4BEF-BAE9-A3DF8B5B1C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E1ED9-6979-4DB4-ACBA-ED1EC7DA6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -29,14 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -405,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2567,7 +2565,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -2916,7 +2914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2945,12 +2943,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="P8" sqref="P8"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3124,7 +3122,9 @@
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -3138,7 +3138,9 @@
         <v>32</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="60">
+        <v>43486</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
@@ -5059,6 +5061,28 @@
       <c r="I130" s="9"/>
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="61">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>-1</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="61">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5105,7 +5129,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/REGULAR/1-TEMPALTE LEAVE CARD.xlsx
+++ b/REGULAR/1-TEMPALTE LEAVE CARD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E1ED9-6979-4DB4-ACBA-ED1EC7DA6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F6F09-9796-4679-8371-801499AA0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -536,6 +536,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,12 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2914,7 +2914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2946,9 +2946,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
-      <selection activeCell="P8" sqref="P8"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:C10"/>
+      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,56 +2970,56 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3045,18 +3045,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3122,9 +3122,7 @@
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
+      <c r="D10" s="39"/>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -3138,9 +3136,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="60">
-        <v>43486</v>
-      </c>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
@@ -5067,20 +5063,14 @@
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
       <c r="D131" s="43"/>
-      <c r="E131" s="61">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1</v>
-      </c>
+      <c r="E131" s="49"/>
       <c r="F131" s="15"/>
       <c r="G131" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H131" s="43"/>
-      <c r="I131" s="61">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
-      </c>
+      <c r="I131" s="49"/>
       <c r="J131" s="12"/>
       <c r="K131" s="15"/>
     </row>
@@ -5130,7 +5120,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,17 +5138,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5233,12 +5223,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
